--- a/biology/Médecine/Chloral/Chloral.xlsx
+++ b/biology/Médecine/Chloral/Chloral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chloral, également appelé trichloroacétaldéhyde et trichloroéthanal, est un composé organique de formule chimique Cl3CCHO. Cet aldéhyde se présente sous la forme d'un liquide incolore huileux à l'odeur piquante soluble dans une large gamme de solvants. Il réagit avec l'eau pour former de l'hydrate de chloral, autrefois très utilisé comme sédatif et hypnotique.
@@ -512,14 +524,16 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est produit industriellement par chloration de l'acétaldéhyde en présence d'acide chlorhydrique, ce qui donne de l'hydrate de chloral. L'éthanol peut également être utilisé comme point de départ. Cette réaction est catalysée par le trichlorure d'antimoine :
 H3CCHO + 3 Cl2 + H2O → Cl3CCH(OH)2 + 3 HCl ;
 4 Cl2 + CH3CH2OH → Cl3CHO + 5 HCl.
 L'hydrate de chloral est distillé du mélange de réaction. Le distillat est ensuite déshydraté avec de l'acide sulfurique concentré, après quoi la couche d'acide plus dense, qui contient l'eau, est éliminée :
 Cl3CCH(OH)2 → Cl3CCHO + H2O.
-Le produit résultant est purifié par distillation fractionnée[4]. De faibles quantités d'hydrate de chloral sont présents dans l'eau chlorée.
+Le produit résultant est purifié par distillation fractionnée. De faibles quantités d'hydrate de chloral sont présents dans l'eau chlorée.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Réactions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chloral tend à former des adduits avec l'eau et les alcools. C'est un précurseur du DDT lorsqu'on le fait réagir avec du chlorobenzène en présence d'acide sulfurique comme catalyseur :
 Cl3CCHO + 2 C6H5Cl → Cl3CCH(C6H4Cl)2 + H2O.
@@ -584,9 +600,11 @@
           <t>Sécurité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chloral et son hydrate ont des propriétés biologiques identiques dans la mesure où l'hydrate se forme rapidement à partir du chloral en milieu aqueux. Ce composé est toxique à haute dose, avec des effets neurologiques et irritants sur la peau et les muqueuses ; les vapeurs ont une CL50 sur 4 heures de 440 mg·m-3[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chloral et son hydrate ont des propriétés biologiques identiques dans la mesure où l'hydrate se forme rapidement à partir du chloral en milieu aqueux. Ce composé est toxique à haute dose, avec des effets neurologiques et irritants sur la peau et les muqueuses ; les vapeurs ont une CL50 sur 4 heures de 440 mg·m-3.
 </t>
         </is>
       </c>
